--- a/data/examples/Network_Config_backup.xlsx
+++ b/data/examples/Network_Config_backup.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Locations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Routes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="LaborCalendar" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TruckSchedules" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CostParameters" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Alias" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Locations" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Routes" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="LaborCalendar" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="TruckSchedules" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CostParameters" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Alias" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,11 +22,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,13 +36,23 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -63,12 +73,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -434,6 +448,237 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>sku</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>shelf_life_ambient_days</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>shelf_life_frozen_days</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>shelf_life_after_thaw_days</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>min_acceptable_shelf_life_days</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>units_per_mix</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>G142</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Product G142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>G142</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>120</v>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>G144</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Product G144</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>G144</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>120</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>G147</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Product G147</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>G147</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>17</v>
+      </c>
+      <c r="E4" t="n">
+        <v>120</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G153</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Product G153</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>G153</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>G610</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Product G610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>G610</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>17</v>
+      </c>
+      <c r="E6" t="n">
+        <v>120</v>
+      </c>
+      <c r="F6" t="n">
+        <v>14</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -523,7 +768,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>50000</v>
       </c>
@@ -549,7 +793,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>50000</v>
       </c>
@@ -575,7 +818,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>30000</v>
       </c>
@@ -601,7 +843,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>15000</v>
       </c>
@@ -627,7 +868,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>35000</v>
       </c>
@@ -653,7 +893,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
         <v>25000</v>
       </c>
@@ -679,7 +918,6 @@
           <t>both</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>10000</v>
       </c>
@@ -705,7 +943,6 @@
           <t>ambient</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>40000</v>
       </c>
@@ -731,7 +968,6 @@
           <t>both</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>15000</v>
       </c>
@@ -757,7 +993,6 @@
           <t>frozen</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>50000</v>
       </c>
@@ -767,7 +1002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +1368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1185,7 +1420,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="4" t="n">
         <v>45803</v>
       </c>
       <c r="B2" t="n">
@@ -1197,7 +1432,6 @@
       <c r="D2" t="n">
         <v>37.5</v>
       </c>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -1206,7 +1440,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="4" t="n">
         <v>45804</v>
       </c>
       <c r="B3" t="n">
@@ -1218,7 +1452,6 @@
       <c r="D3" t="n">
         <v>37.5</v>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
         <v>0</v>
       </c>
@@ -1227,7 +1460,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="4" t="n">
         <v>45805</v>
       </c>
       <c r="B4" t="n">
@@ -1239,7 +1472,6 @@
       <c r="D4" t="n">
         <v>37.5</v>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
       </c>
@@ -1248,7 +1480,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="4" t="n">
         <v>45806</v>
       </c>
       <c r="B5" t="n">
@@ -1260,7 +1492,6 @@
       <c r="D5" t="n">
         <v>37.5</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -1269,7 +1500,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="4" t="n">
         <v>45807</v>
       </c>
       <c r="B6" t="n">
@@ -1281,7 +1512,6 @@
       <c r="D6" t="n">
         <v>37.5</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>0</v>
       </c>
@@ -1290,7 +1520,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="4" t="n">
         <v>45808</v>
       </c>
       <c r="B7" t="n">
@@ -1313,7 +1543,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="4" t="n">
         <v>45809</v>
       </c>
       <c r="B8" t="n">
@@ -1336,7 +1566,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="4" t="n">
         <v>45810</v>
       </c>
       <c r="B9" t="n">
@@ -1348,7 +1578,6 @@
       <c r="D9" t="n">
         <v>37.5</v>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
         <v>0</v>
       </c>
@@ -1357,7 +1586,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="4" t="n">
         <v>45811</v>
       </c>
       <c r="B10" t="n">
@@ -1369,7 +1598,6 @@
       <c r="D10" t="n">
         <v>37.5</v>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>0</v>
       </c>
@@ -1378,7 +1606,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="4" t="n">
         <v>45812</v>
       </c>
       <c r="B11" t="n">
@@ -1390,7 +1618,6 @@
       <c r="D11" t="n">
         <v>37.5</v>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>0</v>
       </c>
@@ -1399,7 +1626,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="4" t="n">
         <v>45813</v>
       </c>
       <c r="B12" t="n">
@@ -1411,7 +1638,6 @@
       <c r="D12" t="n">
         <v>37.5</v>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
         <v>0</v>
       </c>
@@ -1420,7 +1646,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="4" t="n">
         <v>45814</v>
       </c>
       <c r="B13" t="n">
@@ -1432,7 +1658,6 @@
       <c r="D13" t="n">
         <v>37.5</v>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>0</v>
       </c>
@@ -1441,7 +1666,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="4" t="n">
         <v>45815</v>
       </c>
       <c r="B14" t="n">
@@ -1464,7 +1689,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="4" t="n">
         <v>45816</v>
       </c>
       <c r="B15" t="n">
@@ -1487,7 +1712,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="4" t="n">
         <v>45817</v>
       </c>
       <c r="B16" t="n">
@@ -1510,7 +1735,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="4" t="n">
         <v>45818</v>
       </c>
       <c r="B17" t="n">
@@ -1522,7 +1747,6 @@
       <c r="D17" t="n">
         <v>37.5</v>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>0</v>
       </c>
@@ -1531,7 +1755,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="4" t="n">
         <v>45819</v>
       </c>
       <c r="B18" t="n">
@@ -1543,7 +1767,6 @@
       <c r="D18" t="n">
         <v>37.5</v>
       </c>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
         <v>0</v>
       </c>
@@ -1552,7 +1775,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="4" t="n">
         <v>45820</v>
       </c>
       <c r="B19" t="n">
@@ -1564,7 +1787,6 @@
       <c r="D19" t="n">
         <v>37.5</v>
       </c>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
         <v>0</v>
       </c>
@@ -1573,7 +1795,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="4" t="n">
         <v>45821</v>
       </c>
       <c r="B20" t="n">
@@ -1585,7 +1807,6 @@
       <c r="D20" t="n">
         <v>37.5</v>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -1594,7 +1815,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="4" t="n">
         <v>45822</v>
       </c>
       <c r="B21" t="n">
@@ -1617,7 +1838,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="4" t="n">
         <v>45823</v>
       </c>
       <c r="B22" t="n">
@@ -1640,7 +1861,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="4" t="n">
         <v>45824</v>
       </c>
       <c r="B23" t="n">
@@ -1652,7 +1873,6 @@
       <c r="D23" t="n">
         <v>37.5</v>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
         <v>0</v>
       </c>
@@ -1661,7 +1881,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="4" t="n">
         <v>45825</v>
       </c>
       <c r="B24" t="n">
@@ -1673,7 +1893,6 @@
       <c r="D24" t="n">
         <v>37.5</v>
       </c>
-      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
         <v>0</v>
       </c>
@@ -1682,7 +1901,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="4" t="n">
         <v>45826</v>
       </c>
       <c r="B25" t="n">
@@ -1694,7 +1913,6 @@
       <c r="D25" t="n">
         <v>37.5</v>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
         <v>0</v>
       </c>
@@ -1703,7 +1921,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="4" t="n">
         <v>45827</v>
       </c>
       <c r="B26" t="n">
@@ -1715,7 +1933,6 @@
       <c r="D26" t="n">
         <v>37.5</v>
       </c>
-      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -1724,7 +1941,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="4" t="n">
         <v>45828</v>
       </c>
       <c r="B27" t="n">
@@ -1736,7 +1953,6 @@
       <c r="D27" t="n">
         <v>37.5</v>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
         <v>0</v>
       </c>
@@ -1745,7 +1961,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="4" t="n">
         <v>45829</v>
       </c>
       <c r="B28" t="n">
@@ -1768,7 +1984,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="4" t="n">
         <v>45830</v>
       </c>
       <c r="B29" t="n">
@@ -1791,7 +2007,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="4" t="n">
         <v>45831</v>
       </c>
       <c r="B30" t="n">
@@ -1803,7 +2019,6 @@
       <c r="D30" t="n">
         <v>37.5</v>
       </c>
-      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
         <v>0</v>
       </c>
@@ -1812,7 +2027,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="4" t="n">
         <v>45832</v>
       </c>
       <c r="B31" t="n">
@@ -1824,7 +2039,6 @@
       <c r="D31" t="n">
         <v>37.5</v>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
         <v>0</v>
       </c>
@@ -1833,7 +2047,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="4" t="n">
         <v>45833</v>
       </c>
       <c r="B32" t="n">
@@ -1845,7 +2059,6 @@
       <c r="D32" t="n">
         <v>37.5</v>
       </c>
-      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -1854,7 +2067,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="4" t="n">
         <v>45834</v>
       </c>
       <c r="B33" t="n">
@@ -1866,7 +2079,6 @@
       <c r="D33" t="n">
         <v>37.5</v>
       </c>
-      <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
         <v>0</v>
       </c>
@@ -1875,7 +2087,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="4" t="n">
         <v>45835</v>
       </c>
       <c r="B34" t="n">
@@ -1887,7 +2099,6 @@
       <c r="D34" t="n">
         <v>37.5</v>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
         <v>0</v>
       </c>
@@ -1896,7 +2107,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="4" t="n">
         <v>45836</v>
       </c>
       <c r="B35" t="n">
@@ -1919,7 +2130,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="4" t="n">
         <v>45837</v>
       </c>
       <c r="B36" t="n">
@@ -1942,7 +2153,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="4" t="n">
         <v>45838</v>
       </c>
       <c r="B37" t="n">
@@ -1954,7 +2165,6 @@
       <c r="D37" t="n">
         <v>37.5</v>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
         <v>0</v>
       </c>
@@ -1963,7 +2173,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="4" t="n">
         <v>45839</v>
       </c>
       <c r="B38" t="n">
@@ -1975,7 +2185,6 @@
       <c r="D38" t="n">
         <v>37.5</v>
       </c>
-      <c r="E38" t="inlineStr"/>
       <c r="F38" t="n">
         <v>0</v>
       </c>
@@ -1984,7 +2193,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="4" t="n">
         <v>45840</v>
       </c>
       <c r="B39" t="n">
@@ -1996,7 +2205,6 @@
       <c r="D39" t="n">
         <v>37.5</v>
       </c>
-      <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
         <v>0</v>
       </c>
@@ -2005,7 +2213,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="4" t="n">
         <v>45841</v>
       </c>
       <c r="B40" t="n">
@@ -2017,7 +2225,6 @@
       <c r="D40" t="n">
         <v>37.5</v>
       </c>
-      <c r="E40" t="inlineStr"/>
       <c r="F40" t="n">
         <v>0</v>
       </c>
@@ -2026,7 +2233,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="4" t="n">
         <v>45842</v>
       </c>
       <c r="B41" t="n">
@@ -2038,7 +2245,6 @@
       <c r="D41" t="n">
         <v>37.5</v>
       </c>
-      <c r="E41" t="inlineStr"/>
       <c r="F41" t="n">
         <v>0</v>
       </c>
@@ -2047,7 +2253,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="4" t="n">
         <v>45843</v>
       </c>
       <c r="B42" t="n">
@@ -2070,7 +2276,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="4" t="n">
         <v>45844</v>
       </c>
       <c r="B43" t="n">
@@ -2093,7 +2299,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="4" t="n">
         <v>45845</v>
       </c>
       <c r="B44" t="n">
@@ -2105,7 +2311,6 @@
       <c r="D44" t="n">
         <v>37.5</v>
       </c>
-      <c r="E44" t="inlineStr"/>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -2114,7 +2319,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="4" t="n">
         <v>45846</v>
       </c>
       <c r="B45" t="n">
@@ -2126,7 +2331,6 @@
       <c r="D45" t="n">
         <v>37.5</v>
       </c>
-      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
         <v>0</v>
       </c>
@@ -2135,7 +2339,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="4" t="n">
         <v>45847</v>
       </c>
       <c r="B46" t="n">
@@ -2147,7 +2351,6 @@
       <c r="D46" t="n">
         <v>37.5</v>
       </c>
-      <c r="E46" t="inlineStr"/>
       <c r="F46" t="n">
         <v>0</v>
       </c>
@@ -2156,7 +2359,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="4" t="n">
         <v>45848</v>
       </c>
       <c r="B47" t="n">
@@ -2168,7 +2371,6 @@
       <c r="D47" t="n">
         <v>37.5</v>
       </c>
-      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
         <v>0</v>
       </c>
@@ -2177,7 +2379,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="4" t="n">
         <v>45849</v>
       </c>
       <c r="B48" t="n">
@@ -2189,7 +2391,6 @@
       <c r="D48" t="n">
         <v>37.5</v>
       </c>
-      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>0</v>
       </c>
@@ -2198,7 +2399,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="4" t="n">
         <v>45850</v>
       </c>
       <c r="B49" t="n">
@@ -2221,7 +2422,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="4" t="n">
         <v>45851</v>
       </c>
       <c r="B50" t="n">
@@ -2244,7 +2445,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="4" t="n">
         <v>45852</v>
       </c>
       <c r="B51" t="n">
@@ -2256,7 +2457,6 @@
       <c r="D51" t="n">
         <v>37.5</v>
       </c>
-      <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>0</v>
       </c>
@@ -2265,7 +2465,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="4" t="n">
         <v>45853</v>
       </c>
       <c r="B52" t="n">
@@ -2277,7 +2477,6 @@
       <c r="D52" t="n">
         <v>37.5</v>
       </c>
-      <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
         <v>0</v>
       </c>
@@ -2286,7 +2485,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="4" t="n">
         <v>45854</v>
       </c>
       <c r="B53" t="n">
@@ -2298,7 +2497,6 @@
       <c r="D53" t="n">
         <v>37.5</v>
       </c>
-      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>0</v>
       </c>
@@ -2307,7 +2505,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="4" t="n">
         <v>45855</v>
       </c>
       <c r="B54" t="n">
@@ -2319,7 +2517,6 @@
       <c r="D54" t="n">
         <v>37.5</v>
       </c>
-      <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>0</v>
       </c>
@@ -2328,7 +2525,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="4" t="n">
         <v>45856</v>
       </c>
       <c r="B55" t="n">
@@ -2340,7 +2537,6 @@
       <c r="D55" t="n">
         <v>37.5</v>
       </c>
-      <c r="E55" t="inlineStr"/>
       <c r="F55" t="n">
         <v>0</v>
       </c>
@@ -2349,7 +2545,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="4" t="n">
         <v>45857</v>
       </c>
       <c r="B56" t="n">
@@ -2372,7 +2568,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="4" t="n">
         <v>45858</v>
       </c>
       <c r="B57" t="n">
@@ -2395,7 +2591,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="4" t="n">
         <v>45859</v>
       </c>
       <c r="B58" t="n">
@@ -2407,7 +2603,6 @@
       <c r="D58" t="n">
         <v>37.5</v>
       </c>
-      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
         <v>0</v>
       </c>
@@ -2416,7 +2611,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="4" t="n">
         <v>45860</v>
       </c>
       <c r="B59" t="n">
@@ -2428,7 +2623,6 @@
       <c r="D59" t="n">
         <v>37.5</v>
       </c>
-      <c r="E59" t="inlineStr"/>
       <c r="F59" t="n">
         <v>0</v>
       </c>
@@ -2437,7 +2631,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="4" t="n">
         <v>45861</v>
       </c>
       <c r="B60" t="n">
@@ -2449,7 +2643,6 @@
       <c r="D60" t="n">
         <v>37.5</v>
       </c>
-      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
         <v>0</v>
       </c>
@@ -2458,7 +2651,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="4" t="n">
         <v>45862</v>
       </c>
       <c r="B61" t="n">
@@ -2470,7 +2663,6 @@
       <c r="D61" t="n">
         <v>37.5</v>
       </c>
-      <c r="E61" t="inlineStr"/>
       <c r="F61" t="n">
         <v>0</v>
       </c>
@@ -2479,7 +2671,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="4" t="n">
         <v>45863</v>
       </c>
       <c r="B62" t="n">
@@ -2491,7 +2683,6 @@
       <c r="D62" t="n">
         <v>37.5</v>
       </c>
-      <c r="E62" t="inlineStr"/>
       <c r="F62" t="n">
         <v>0</v>
       </c>
@@ -2500,7 +2691,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="4" t="n">
         <v>45864</v>
       </c>
       <c r="B63" t="n">
@@ -2523,7 +2714,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="4" t="n">
         <v>45865</v>
       </c>
       <c r="B64" t="n">
@@ -2546,7 +2737,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="4" t="n">
         <v>45866</v>
       </c>
       <c r="B65" t="n">
@@ -2558,7 +2749,6 @@
       <c r="D65" t="n">
         <v>37.5</v>
       </c>
-      <c r="E65" t="inlineStr"/>
       <c r="F65" t="n">
         <v>0</v>
       </c>
@@ -2567,7 +2757,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="4" t="n">
         <v>45867</v>
       </c>
       <c r="B66" t="n">
@@ -2579,7 +2769,6 @@
       <c r="D66" t="n">
         <v>37.5</v>
       </c>
-      <c r="E66" t="inlineStr"/>
       <c r="F66" t="n">
         <v>0</v>
       </c>
@@ -2588,7 +2777,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="4" t="n">
         <v>45868</v>
       </c>
       <c r="B67" t="n">
@@ -2600,7 +2789,6 @@
       <c r="D67" t="n">
         <v>37.5</v>
       </c>
-      <c r="E67" t="inlineStr"/>
       <c r="F67" t="n">
         <v>0</v>
       </c>
@@ -2609,7 +2797,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="4" t="n">
         <v>45869</v>
       </c>
       <c r="B68" t="n">
@@ -2621,7 +2809,6 @@
       <c r="D68" t="n">
         <v>37.5</v>
       </c>
-      <c r="E68" t="inlineStr"/>
       <c r="F68" t="n">
         <v>0</v>
       </c>
@@ -2630,7 +2817,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="4" t="n">
         <v>45870</v>
       </c>
       <c r="B69" t="n">
@@ -2642,7 +2829,6 @@
       <c r="D69" t="n">
         <v>37.5</v>
       </c>
-      <c r="E69" t="inlineStr"/>
       <c r="F69" t="n">
         <v>0</v>
       </c>
@@ -2651,7 +2837,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="4" t="n">
         <v>45871</v>
       </c>
       <c r="B70" t="n">
@@ -2674,7 +2860,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="4" t="n">
         <v>45872</v>
       </c>
       <c r="B71" t="n">
@@ -2697,7 +2883,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="4" t="n">
         <v>45873</v>
       </c>
       <c r="B72" t="n">
@@ -2709,7 +2895,6 @@
       <c r="D72" t="n">
         <v>37.5</v>
       </c>
-      <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
         <v>0</v>
       </c>
@@ -2718,7 +2903,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="4" t="n">
         <v>45874</v>
       </c>
       <c r="B73" t="n">
@@ -2730,7 +2915,6 @@
       <c r="D73" t="n">
         <v>37.5</v>
       </c>
-      <c r="E73" t="inlineStr"/>
       <c r="F73" t="n">
         <v>0</v>
       </c>
@@ -2739,7 +2923,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="4" t="n">
         <v>45875</v>
       </c>
       <c r="B74" t="n">
@@ -2751,7 +2935,6 @@
       <c r="D74" t="n">
         <v>37.5</v>
       </c>
-      <c r="E74" t="inlineStr"/>
       <c r="F74" t="n">
         <v>0</v>
       </c>
@@ -2760,7 +2943,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="4" t="n">
         <v>45876</v>
       </c>
       <c r="B75" t="n">
@@ -2772,7 +2955,6 @@
       <c r="D75" t="n">
         <v>37.5</v>
       </c>
-      <c r="E75" t="inlineStr"/>
       <c r="F75" t="n">
         <v>0</v>
       </c>
@@ -2781,7 +2963,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="4" t="n">
         <v>45877</v>
       </c>
       <c r="B76" t="n">
@@ -2793,7 +2975,6 @@
       <c r="D76" t="n">
         <v>37.5</v>
       </c>
-      <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
         <v>0</v>
       </c>
@@ -2802,7 +2983,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="4" t="n">
         <v>45878</v>
       </c>
       <c r="B77" t="n">
@@ -2825,7 +3006,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="4" t="n">
         <v>45879</v>
       </c>
       <c r="B78" t="n">
@@ -2848,7 +3029,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="4" t="n">
         <v>45880</v>
       </c>
       <c r="B79" t="n">
@@ -2860,7 +3041,6 @@
       <c r="D79" t="n">
         <v>37.5</v>
       </c>
-      <c r="E79" t="inlineStr"/>
       <c r="F79" t="n">
         <v>0</v>
       </c>
@@ -2869,7 +3049,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="4" t="n">
         <v>45881</v>
       </c>
       <c r="B80" t="n">
@@ -2881,7 +3061,6 @@
       <c r="D80" t="n">
         <v>37.5</v>
       </c>
-      <c r="E80" t="inlineStr"/>
       <c r="F80" t="n">
         <v>0</v>
       </c>
@@ -2890,7 +3069,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="4" t="n">
         <v>45882</v>
       </c>
       <c r="B81" t="n">
@@ -2902,7 +3081,6 @@
       <c r="D81" t="n">
         <v>37.5</v>
       </c>
-      <c r="E81" t="inlineStr"/>
       <c r="F81" t="n">
         <v>0</v>
       </c>
@@ -2911,7 +3089,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="4" t="n">
         <v>45883</v>
       </c>
       <c r="B82" t="n">
@@ -2923,7 +3101,6 @@
       <c r="D82" t="n">
         <v>37.5</v>
       </c>
-      <c r="E82" t="inlineStr"/>
       <c r="F82" t="n">
         <v>0</v>
       </c>
@@ -2932,7 +3109,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="4" t="n">
         <v>45884</v>
       </c>
       <c r="B83" t="n">
@@ -2944,7 +3121,6 @@
       <c r="D83" t="n">
         <v>37.5</v>
       </c>
-      <c r="E83" t="inlineStr"/>
       <c r="F83" t="n">
         <v>0</v>
       </c>
@@ -2953,7 +3129,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="4" t="n">
         <v>45885</v>
       </c>
       <c r="B84" t="n">
@@ -2976,7 +3152,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="4" t="n">
         <v>45886</v>
       </c>
       <c r="B85" t="n">
@@ -2999,7 +3175,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="4" t="n">
         <v>45887</v>
       </c>
       <c r="B86" t="n">
@@ -3011,7 +3187,6 @@
       <c r="D86" t="n">
         <v>37.5</v>
       </c>
-      <c r="E86" t="inlineStr"/>
       <c r="F86" t="n">
         <v>0</v>
       </c>
@@ -3020,7 +3195,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="4" t="n">
         <v>45888</v>
       </c>
       <c r="B87" t="n">
@@ -3032,7 +3207,6 @@
       <c r="D87" t="n">
         <v>37.5</v>
       </c>
-      <c r="E87" t="inlineStr"/>
       <c r="F87" t="n">
         <v>0</v>
       </c>
@@ -3041,7 +3215,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="4" t="n">
         <v>45889</v>
       </c>
       <c r="B88" t="n">
@@ -3053,7 +3227,6 @@
       <c r="D88" t="n">
         <v>37.5</v>
       </c>
-      <c r="E88" t="inlineStr"/>
       <c r="F88" t="n">
         <v>0</v>
       </c>
@@ -3062,7 +3235,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="4" t="n">
         <v>45890</v>
       </c>
       <c r="B89" t="n">
@@ -3074,7 +3247,6 @@
       <c r="D89" t="n">
         <v>37.5</v>
       </c>
-      <c r="E89" t="inlineStr"/>
       <c r="F89" t="n">
         <v>0</v>
       </c>
@@ -3083,7 +3255,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="4" t="n">
         <v>45891</v>
       </c>
       <c r="B90" t="n">
@@ -3095,7 +3267,6 @@
       <c r="D90" t="n">
         <v>37.5</v>
       </c>
-      <c r="E90" t="inlineStr"/>
       <c r="F90" t="n">
         <v>0</v>
       </c>
@@ -3104,7 +3275,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="4" t="n">
         <v>45892</v>
       </c>
       <c r="B91" t="n">
@@ -3127,7 +3298,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="4" t="n">
         <v>45893</v>
       </c>
       <c r="B92" t="n">
@@ -3150,7 +3321,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="4" t="n">
         <v>45894</v>
       </c>
       <c r="B93" t="n">
@@ -3162,7 +3333,6 @@
       <c r="D93" t="n">
         <v>37.5</v>
       </c>
-      <c r="E93" t="inlineStr"/>
       <c r="F93" t="n">
         <v>0</v>
       </c>
@@ -3171,7 +3341,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="4" t="n">
         <v>45895</v>
       </c>
       <c r="B94" t="n">
@@ -3183,7 +3353,6 @@
       <c r="D94" t="n">
         <v>37.5</v>
       </c>
-      <c r="E94" t="inlineStr"/>
       <c r="F94" t="n">
         <v>0</v>
       </c>
@@ -3192,7 +3361,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="4" t="n">
         <v>45896</v>
       </c>
       <c r="B95" t="n">
@@ -3204,7 +3373,6 @@
       <c r="D95" t="n">
         <v>37.5</v>
       </c>
-      <c r="E95" t="inlineStr"/>
       <c r="F95" t="n">
         <v>0</v>
       </c>
@@ -3213,7 +3381,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="4" t="n">
         <v>45897</v>
       </c>
       <c r="B96" t="n">
@@ -3225,7 +3393,6 @@
       <c r="D96" t="n">
         <v>37.5</v>
       </c>
-      <c r="E96" t="inlineStr"/>
       <c r="F96" t="n">
         <v>0</v>
       </c>
@@ -3234,7 +3401,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="4" t="n">
         <v>45898</v>
       </c>
       <c r="B97" t="n">
@@ -3246,7 +3413,6 @@
       <c r="D97" t="n">
         <v>37.5</v>
       </c>
-      <c r="E97" t="inlineStr"/>
       <c r="F97" t="n">
         <v>0</v>
       </c>
@@ -3255,7 +3421,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="4" t="n">
         <v>45899</v>
       </c>
       <c r="B98" t="n">
@@ -3278,7 +3444,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="4" t="n">
         <v>45900</v>
       </c>
       <c r="B99" t="n">
@@ -3301,7 +3467,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="4" t="n">
         <v>45901</v>
       </c>
       <c r="B100" t="n">
@@ -3313,7 +3479,6 @@
       <c r="D100" t="n">
         <v>37.5</v>
       </c>
-      <c r="E100" t="inlineStr"/>
       <c r="F100" t="n">
         <v>0</v>
       </c>
@@ -3322,7 +3487,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="4" t="n">
         <v>45902</v>
       </c>
       <c r="B101" t="n">
@@ -3334,7 +3499,6 @@
       <c r="D101" t="n">
         <v>37.5</v>
       </c>
-      <c r="E101" t="inlineStr"/>
       <c r="F101" t="n">
         <v>0</v>
       </c>
@@ -3343,7 +3507,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="4" t="n">
         <v>45903</v>
       </c>
       <c r="B102" t="n">
@@ -3355,7 +3519,6 @@
       <c r="D102" t="n">
         <v>37.5</v>
       </c>
-      <c r="E102" t="inlineStr"/>
       <c r="F102" t="n">
         <v>0</v>
       </c>
@@ -3364,7 +3527,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="4" t="n">
         <v>45904</v>
       </c>
       <c r="B103" t="n">
@@ -3376,7 +3539,6 @@
       <c r="D103" t="n">
         <v>37.5</v>
       </c>
-      <c r="E103" t="inlineStr"/>
       <c r="F103" t="n">
         <v>0</v>
       </c>
@@ -3385,7 +3547,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="4" t="n">
         <v>45905</v>
       </c>
       <c r="B104" t="n">
@@ -3397,7 +3559,6 @@
       <c r="D104" t="n">
         <v>37.5</v>
       </c>
-      <c r="E104" t="inlineStr"/>
       <c r="F104" t="n">
         <v>0</v>
       </c>
@@ -3406,7 +3567,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="4" t="n">
         <v>45906</v>
       </c>
       <c r="B105" t="n">
@@ -3429,7 +3590,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="4" t="n">
         <v>45907</v>
       </c>
       <c r="B106" t="n">
@@ -3452,7 +3613,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="4" t="n">
         <v>45908</v>
       </c>
       <c r="B107" t="n">
@@ -3464,7 +3625,6 @@
       <c r="D107" t="n">
         <v>37.5</v>
       </c>
-      <c r="E107" t="inlineStr"/>
       <c r="F107" t="n">
         <v>0</v>
       </c>
@@ -3473,7 +3633,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="4" t="n">
         <v>45909</v>
       </c>
       <c r="B108" t="n">
@@ -3485,7 +3645,6 @@
       <c r="D108" t="n">
         <v>37.5</v>
       </c>
-      <c r="E108" t="inlineStr"/>
       <c r="F108" t="n">
         <v>0</v>
       </c>
@@ -3494,7 +3653,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="4" t="n">
         <v>45910</v>
       </c>
       <c r="B109" t="n">
@@ -3506,7 +3665,6 @@
       <c r="D109" t="n">
         <v>37.5</v>
       </c>
-      <c r="E109" t="inlineStr"/>
       <c r="F109" t="n">
         <v>0</v>
       </c>
@@ -3515,7 +3673,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="4" t="n">
         <v>45911</v>
       </c>
       <c r="B110" t="n">
@@ -3527,7 +3685,6 @@
       <c r="D110" t="n">
         <v>37.5</v>
       </c>
-      <c r="E110" t="inlineStr"/>
       <c r="F110" t="n">
         <v>0</v>
       </c>
@@ -3536,7 +3693,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="4" t="n">
         <v>45912</v>
       </c>
       <c r="B111" t="n">
@@ -3548,7 +3705,6 @@
       <c r="D111" t="n">
         <v>37.5</v>
       </c>
-      <c r="E111" t="inlineStr"/>
       <c r="F111" t="n">
         <v>0</v>
       </c>
@@ -3557,7 +3713,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="4" t="n">
         <v>45913</v>
       </c>
       <c r="B112" t="n">
@@ -3580,7 +3736,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="4" t="n">
         <v>45914</v>
       </c>
       <c r="B113" t="n">
@@ -3603,7 +3759,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="4" t="n">
         <v>45915</v>
       </c>
       <c r="B114" t="n">
@@ -3615,7 +3771,6 @@
       <c r="D114" t="n">
         <v>37.5</v>
       </c>
-      <c r="E114" t="inlineStr"/>
       <c r="F114" t="n">
         <v>0</v>
       </c>
@@ -3624,7 +3779,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="4" t="n">
         <v>45916</v>
       </c>
       <c r="B115" t="n">
@@ -3636,7 +3791,6 @@
       <c r="D115" t="n">
         <v>37.5</v>
       </c>
-      <c r="E115" t="inlineStr"/>
       <c r="F115" t="n">
         <v>0</v>
       </c>
@@ -3645,7 +3799,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="4" t="n">
         <v>45917</v>
       </c>
       <c r="B116" t="n">
@@ -3657,7 +3811,6 @@
       <c r="D116" t="n">
         <v>37.5</v>
       </c>
-      <c r="E116" t="inlineStr"/>
       <c r="F116" t="n">
         <v>0</v>
       </c>
@@ -3666,7 +3819,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="4" t="n">
         <v>45918</v>
       </c>
       <c r="B117" t="n">
@@ -3678,7 +3831,6 @@
       <c r="D117" t="n">
         <v>37.5</v>
       </c>
-      <c r="E117" t="inlineStr"/>
       <c r="F117" t="n">
         <v>0</v>
       </c>
@@ -3687,7 +3839,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="4" t="n">
         <v>45919</v>
       </c>
       <c r="B118" t="n">
@@ -3699,7 +3851,6 @@
       <c r="D118" t="n">
         <v>37.5</v>
       </c>
-      <c r="E118" t="inlineStr"/>
       <c r="F118" t="n">
         <v>0</v>
       </c>
@@ -3708,7 +3859,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="4" t="n">
         <v>45920</v>
       </c>
       <c r="B119" t="n">
@@ -3731,7 +3882,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="4" t="n">
         <v>45921</v>
       </c>
       <c r="B120" t="n">
@@ -3754,7 +3905,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="4" t="n">
         <v>45922</v>
       </c>
       <c r="B121" t="n">
@@ -3766,7 +3917,6 @@
       <c r="D121" t="n">
         <v>37.5</v>
       </c>
-      <c r="E121" t="inlineStr"/>
       <c r="F121" t="n">
         <v>0</v>
       </c>
@@ -3775,7 +3925,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="4" t="n">
         <v>45923</v>
       </c>
       <c r="B122" t="n">
@@ -3787,7 +3937,6 @@
       <c r="D122" t="n">
         <v>37.5</v>
       </c>
-      <c r="E122" t="inlineStr"/>
       <c r="F122" t="n">
         <v>0</v>
       </c>
@@ -3796,7 +3945,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="4" t="n">
         <v>45924</v>
       </c>
       <c r="B123" t="n">
@@ -3808,7 +3957,6 @@
       <c r="D123" t="n">
         <v>37.5</v>
       </c>
-      <c r="E123" t="inlineStr"/>
       <c r="F123" t="n">
         <v>0</v>
       </c>
@@ -3817,7 +3965,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="4" t="n">
         <v>45925</v>
       </c>
       <c r="B124" t="n">
@@ -3829,7 +3977,6 @@
       <c r="D124" t="n">
         <v>37.5</v>
       </c>
-      <c r="E124" t="inlineStr"/>
       <c r="F124" t="n">
         <v>0</v>
       </c>
@@ -3838,7 +3985,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="4" t="n">
         <v>45926</v>
       </c>
       <c r="B125" t="n">
@@ -3861,7 +4008,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="4" t="n">
         <v>45927</v>
       </c>
       <c r="B126" t="n">
@@ -3884,7 +4031,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="4" t="n">
         <v>45928</v>
       </c>
       <c r="B127" t="n">
@@ -3907,7 +4054,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="4" t="n">
         <v>45929</v>
       </c>
       <c r="B128" t="n">
@@ -3919,7 +4066,6 @@
       <c r="D128" t="n">
         <v>37.5</v>
       </c>
-      <c r="E128" t="inlineStr"/>
       <c r="F128" t="n">
         <v>0</v>
       </c>
@@ -3928,7 +4074,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="4" t="n">
         <v>45930</v>
       </c>
       <c r="B129" t="n">
@@ -3940,7 +4086,6 @@
       <c r="D129" t="n">
         <v>37.5</v>
       </c>
-      <c r="E129" t="inlineStr"/>
       <c r="F129" t="n">
         <v>0</v>
       </c>
@@ -3949,7 +4094,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="4" t="n">
         <v>45931</v>
       </c>
       <c r="B130" t="n">
@@ -3961,7 +4106,6 @@
       <c r="D130" t="n">
         <v>37.5</v>
       </c>
-      <c r="E130" t="inlineStr"/>
       <c r="F130" t="n">
         <v>0</v>
       </c>
@@ -3970,7 +4114,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="4" t="n">
         <v>45932</v>
       </c>
       <c r="B131" t="n">
@@ -3982,7 +4126,6 @@
       <c r="D131" t="n">
         <v>37.5</v>
       </c>
-      <c r="E131" t="inlineStr"/>
       <c r="F131" t="n">
         <v>0</v>
       </c>
@@ -3991,7 +4134,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="4" t="n">
         <v>45933</v>
       </c>
       <c r="B132" t="n">
@@ -4003,7 +4146,6 @@
       <c r="D132" t="n">
         <v>37.5</v>
       </c>
-      <c r="E132" t="inlineStr"/>
       <c r="F132" t="n">
         <v>0</v>
       </c>
@@ -4012,7 +4154,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="4" t="n">
         <v>45934</v>
       </c>
       <c r="B133" t="n">
@@ -4035,7 +4177,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="4" t="n">
         <v>45935</v>
       </c>
       <c r="B134" t="n">
@@ -4058,7 +4200,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="4" t="n">
         <v>45936</v>
       </c>
       <c r="B135" t="n">
@@ -4070,7 +4212,6 @@
       <c r="D135" t="n">
         <v>37.5</v>
       </c>
-      <c r="E135" t="inlineStr"/>
       <c r="F135" t="n">
         <v>0</v>
       </c>
@@ -4079,7 +4220,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="4" t="n">
         <v>45937</v>
       </c>
       <c r="B136" t="n">
@@ -4091,7 +4232,6 @@
       <c r="D136" t="n">
         <v>37.5</v>
       </c>
-      <c r="E136" t="inlineStr"/>
       <c r="F136" t="n">
         <v>0</v>
       </c>
@@ -4100,7 +4240,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="4" t="n">
         <v>45938</v>
       </c>
       <c r="B137" t="n">
@@ -4112,7 +4252,6 @@
       <c r="D137" t="n">
         <v>37.5</v>
       </c>
-      <c r="E137" t="inlineStr"/>
       <c r="F137" t="n">
         <v>0</v>
       </c>
@@ -4121,7 +4260,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="4" t="n">
         <v>45939</v>
       </c>
       <c r="B138" t="n">
@@ -4133,7 +4272,6 @@
       <c r="D138" t="n">
         <v>37.5</v>
       </c>
-      <c r="E138" t="inlineStr"/>
       <c r="F138" t="n">
         <v>0</v>
       </c>
@@ -4142,7 +4280,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="4" t="n">
         <v>45940</v>
       </c>
       <c r="B139" t="n">
@@ -4154,7 +4292,6 @@
       <c r="D139" t="n">
         <v>37.5</v>
       </c>
-      <c r="E139" t="inlineStr"/>
       <c r="F139" t="n">
         <v>0</v>
       </c>
@@ -4163,7 +4300,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="4" t="n">
         <v>45941</v>
       </c>
       <c r="B140" t="n">
@@ -4186,7 +4323,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="4" t="n">
         <v>45942</v>
       </c>
       <c r="B141" t="n">
@@ -4209,7 +4346,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="4" t="n">
         <v>45943</v>
       </c>
       <c r="B142" t="n">
@@ -4221,7 +4358,6 @@
       <c r="D142" t="n">
         <v>37.5</v>
       </c>
-      <c r="E142" t="inlineStr"/>
       <c r="F142" t="n">
         <v>0</v>
       </c>
@@ -4230,7 +4366,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="4" t="n">
         <v>45944</v>
       </c>
       <c r="B143" t="n">
@@ -4242,7 +4378,6 @@
       <c r="D143" t="n">
         <v>37.5</v>
       </c>
-      <c r="E143" t="inlineStr"/>
       <c r="F143" t="n">
         <v>0</v>
       </c>
@@ -4251,7 +4386,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="4" t="n">
         <v>45945</v>
       </c>
       <c r="B144" t="n">
@@ -4263,7 +4398,6 @@
       <c r="D144" t="n">
         <v>37.5</v>
       </c>
-      <c r="E144" t="inlineStr"/>
       <c r="F144" t="n">
         <v>0</v>
       </c>
@@ -4272,7 +4406,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="4" t="n">
         <v>45946</v>
       </c>
       <c r="B145" t="n">
@@ -4284,7 +4418,6 @@
       <c r="D145" t="n">
         <v>37.5</v>
       </c>
-      <c r="E145" t="inlineStr"/>
       <c r="F145" t="n">
         <v>0</v>
       </c>
@@ -4293,7 +4426,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="4" t="n">
         <v>45947</v>
       </c>
       <c r="B146" t="n">
@@ -4305,7 +4438,6 @@
       <c r="D146" t="n">
         <v>37.5</v>
       </c>
-      <c r="E146" t="inlineStr"/>
       <c r="F146" t="n">
         <v>0</v>
       </c>
@@ -4314,7 +4446,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="4" t="n">
         <v>45948</v>
       </c>
       <c r="B147" t="n">
@@ -4337,7 +4469,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="4" t="n">
         <v>45949</v>
       </c>
       <c r="B148" t="n">
@@ -4360,7 +4492,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="4" t="n">
         <v>45950</v>
       </c>
       <c r="B149" t="n">
@@ -4372,7 +4504,6 @@
       <c r="D149" t="n">
         <v>37.5</v>
       </c>
-      <c r="E149" t="inlineStr"/>
       <c r="F149" t="n">
         <v>0</v>
       </c>
@@ -4381,7 +4512,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="4" t="n">
         <v>45951</v>
       </c>
       <c r="B150" t="n">
@@ -4393,7 +4524,6 @@
       <c r="D150" t="n">
         <v>37.5</v>
       </c>
-      <c r="E150" t="inlineStr"/>
       <c r="F150" t="n">
         <v>0</v>
       </c>
@@ -4402,7 +4532,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="4" t="n">
         <v>45952</v>
       </c>
       <c r="B151" t="n">
@@ -4414,7 +4544,6 @@
       <c r="D151" t="n">
         <v>37.5</v>
       </c>
-      <c r="E151" t="inlineStr"/>
       <c r="F151" t="n">
         <v>0</v>
       </c>
@@ -4423,7 +4552,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="4" t="n">
         <v>45953</v>
       </c>
       <c r="B152" t="n">
@@ -4435,7 +4564,6 @@
       <c r="D152" t="n">
         <v>37.5</v>
       </c>
-      <c r="E152" t="inlineStr"/>
       <c r="F152" t="n">
         <v>0</v>
       </c>
@@ -4444,7 +4572,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="4" t="n">
         <v>45954</v>
       </c>
       <c r="B153" t="n">
@@ -4456,7 +4584,6 @@
       <c r="D153" t="n">
         <v>37.5</v>
       </c>
-      <c r="E153" t="inlineStr"/>
       <c r="F153" t="n">
         <v>0</v>
       </c>
@@ -4465,7 +4592,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="4" t="n">
         <v>45955</v>
       </c>
       <c r="B154" t="n">
@@ -4488,7 +4615,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="4" t="n">
         <v>45956</v>
       </c>
       <c r="B155" t="n">
@@ -4511,7 +4638,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="4" t="n">
         <v>45957</v>
       </c>
       <c r="B156" t="n">
@@ -4523,7 +4650,6 @@
       <c r="D156" t="n">
         <v>37.5</v>
       </c>
-      <c r="E156" t="inlineStr"/>
       <c r="F156" t="n">
         <v>0</v>
       </c>
@@ -4532,7 +4658,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="4" t="n">
         <v>45958</v>
       </c>
       <c r="B157" t="n">
@@ -4544,7 +4670,6 @@
       <c r="D157" t="n">
         <v>37.5</v>
       </c>
-      <c r="E157" t="inlineStr"/>
       <c r="F157" t="n">
         <v>0</v>
       </c>
@@ -4553,7 +4678,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="4" t="n">
         <v>45959</v>
       </c>
       <c r="B158" t="n">
@@ -4565,7 +4690,6 @@
       <c r="D158" t="n">
         <v>37.5</v>
       </c>
-      <c r="E158" t="inlineStr"/>
       <c r="F158" t="n">
         <v>0</v>
       </c>
@@ -4574,7 +4698,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="4" t="n">
         <v>45960</v>
       </c>
       <c r="B159" t="n">
@@ -4586,7 +4710,6 @@
       <c r="D159" t="n">
         <v>37.5</v>
       </c>
-      <c r="E159" t="inlineStr"/>
       <c r="F159" t="n">
         <v>0</v>
       </c>
@@ -4595,7 +4718,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="4" t="n">
         <v>45961</v>
       </c>
       <c r="B160" t="n">
@@ -4607,7 +4730,6 @@
       <c r="D160" t="n">
         <v>37.5</v>
       </c>
-      <c r="E160" t="inlineStr"/>
       <c r="F160" t="n">
         <v>0</v>
       </c>
@@ -4616,7 +4738,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="4" t="n">
         <v>45962</v>
       </c>
       <c r="B161" t="n">
@@ -4639,7 +4761,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="4" t="n">
         <v>45963</v>
       </c>
       <c r="B162" t="n">
@@ -4662,7 +4784,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="4" t="n">
         <v>45964</v>
       </c>
       <c r="B163" t="n">
@@ -4674,7 +4796,6 @@
       <c r="D163" t="n">
         <v>37.5</v>
       </c>
-      <c r="E163" t="inlineStr"/>
       <c r="F163" t="n">
         <v>0</v>
       </c>
@@ -4683,7 +4804,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="4" t="n">
         <v>45965</v>
       </c>
       <c r="B164" t="n">
@@ -4706,7 +4827,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="4" t="n">
         <v>45966</v>
       </c>
       <c r="B165" t="n">
@@ -4718,7 +4839,6 @@
       <c r="D165" t="n">
         <v>37.5</v>
       </c>
-      <c r="E165" t="inlineStr"/>
       <c r="F165" t="n">
         <v>0</v>
       </c>
@@ -4727,7 +4847,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="4" t="n">
         <v>45967</v>
       </c>
       <c r="B166" t="n">
@@ -4739,7 +4859,6 @@
       <c r="D166" t="n">
         <v>37.5</v>
       </c>
-      <c r="E166" t="inlineStr"/>
       <c r="F166" t="n">
         <v>0</v>
       </c>
@@ -4748,7 +4867,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="4" t="n">
         <v>45968</v>
       </c>
       <c r="B167" t="n">
@@ -4760,7 +4879,6 @@
       <c r="D167" t="n">
         <v>37.5</v>
       </c>
-      <c r="E167" t="inlineStr"/>
       <c r="F167" t="n">
         <v>0</v>
       </c>
@@ -4769,7 +4887,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="4" t="n">
         <v>45969</v>
       </c>
       <c r="B168" t="n">
@@ -4792,7 +4910,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="4" t="n">
         <v>45970</v>
       </c>
       <c r="B169" t="n">
@@ -4815,7 +4933,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="4" t="n">
         <v>45971</v>
       </c>
       <c r="B170" t="n">
@@ -4827,7 +4945,6 @@
       <c r="D170" t="n">
         <v>37.5</v>
       </c>
-      <c r="E170" t="inlineStr"/>
       <c r="F170" t="n">
         <v>0</v>
       </c>
@@ -4836,7 +4953,7 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="4" t="n">
         <v>45972</v>
       </c>
       <c r="B171" t="n">
@@ -4848,7 +4965,6 @@
       <c r="D171" t="n">
         <v>37.5</v>
       </c>
-      <c r="E171" t="inlineStr"/>
       <c r="F171" t="n">
         <v>0</v>
       </c>
@@ -4857,7 +4973,7 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="4" t="n">
         <v>45973</v>
       </c>
       <c r="B172" t="n">
@@ -4869,7 +4985,6 @@
       <c r="D172" t="n">
         <v>37.5</v>
       </c>
-      <c r="E172" t="inlineStr"/>
       <c r="F172" t="n">
         <v>0</v>
       </c>
@@ -4878,7 +4993,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="4" t="n">
         <v>45974</v>
       </c>
       <c r="B173" t="n">
@@ -4890,7 +5005,6 @@
       <c r="D173" t="n">
         <v>37.5</v>
       </c>
-      <c r="E173" t="inlineStr"/>
       <c r="F173" t="n">
         <v>0</v>
       </c>
@@ -4899,7 +5013,7 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="4" t="n">
         <v>45975</v>
       </c>
       <c r="B174" t="n">
@@ -4911,7 +5025,6 @@
       <c r="D174" t="n">
         <v>37.5</v>
       </c>
-      <c r="E174" t="inlineStr"/>
       <c r="F174" t="n">
         <v>0</v>
       </c>
@@ -4920,7 +5033,7 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="4" t="n">
         <v>45976</v>
       </c>
       <c r="B175" t="n">
@@ -4943,7 +5056,7 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="4" t="n">
         <v>45977</v>
       </c>
       <c r="B176" t="n">
@@ -4966,7 +5079,7 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="4" t="n">
         <v>45978</v>
       </c>
       <c r="B177" t="n">
@@ -4978,7 +5091,6 @@
       <c r="D177" t="n">
         <v>37.5</v>
       </c>
-      <c r="E177" t="inlineStr"/>
       <c r="F177" t="n">
         <v>0</v>
       </c>
@@ -4987,7 +5099,7 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="4" t="n">
         <v>45979</v>
       </c>
       <c r="B178" t="n">
@@ -4999,7 +5111,6 @@
       <c r="D178" t="n">
         <v>37.5</v>
       </c>
-      <c r="E178" t="inlineStr"/>
       <c r="F178" t="n">
         <v>0</v>
       </c>
@@ -5008,7 +5119,7 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="4" t="n">
         <v>45980</v>
       </c>
       <c r="B179" t="n">
@@ -5020,7 +5131,6 @@
       <c r="D179" t="n">
         <v>37.5</v>
       </c>
-      <c r="E179" t="inlineStr"/>
       <c r="F179" t="n">
         <v>0</v>
       </c>
@@ -5029,7 +5139,7 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="4" t="n">
         <v>45981</v>
       </c>
       <c r="B180" t="n">
@@ -5041,7 +5151,6 @@
       <c r="D180" t="n">
         <v>37.5</v>
       </c>
-      <c r="E180" t="inlineStr"/>
       <c r="F180" t="n">
         <v>0</v>
       </c>
@@ -5050,7 +5159,7 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="4" t="n">
         <v>45982</v>
       </c>
       <c r="B181" t="n">
@@ -5062,7 +5171,6 @@
       <c r="D181" t="n">
         <v>37.5</v>
       </c>
-      <c r="E181" t="inlineStr"/>
       <c r="F181" t="n">
         <v>0</v>
       </c>
@@ -5071,7 +5179,7 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="4" t="n">
         <v>45983</v>
       </c>
       <c r="B182" t="n">
@@ -5094,7 +5202,7 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="4" t="n">
         <v>45984</v>
       </c>
       <c r="B183" t="n">
@@ -5117,7 +5225,7 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="4" t="n">
         <v>45985</v>
       </c>
       <c r="B184" t="n">
@@ -5129,7 +5237,6 @@
       <c r="D184" t="n">
         <v>37.5</v>
       </c>
-      <c r="E184" t="inlineStr"/>
       <c r="F184" t="n">
         <v>0</v>
       </c>
@@ -5138,7 +5245,7 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="4" t="n">
         <v>45986</v>
       </c>
       <c r="B185" t="n">
@@ -5150,7 +5257,6 @@
       <c r="D185" t="n">
         <v>37.5</v>
       </c>
-      <c r="E185" t="inlineStr"/>
       <c r="F185" t="n">
         <v>0</v>
       </c>
@@ -5159,7 +5265,7 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="4" t="n">
         <v>45987</v>
       </c>
       <c r="B186" t="n">
@@ -5171,7 +5277,6 @@
       <c r="D186" t="n">
         <v>37.5</v>
       </c>
-      <c r="E186" t="inlineStr"/>
       <c r="F186" t="n">
         <v>0</v>
       </c>
@@ -5180,7 +5285,7 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="4" t="n">
         <v>45988</v>
       </c>
       <c r="B187" t="n">
@@ -5192,7 +5297,6 @@
       <c r="D187" t="n">
         <v>37.5</v>
       </c>
-      <c r="E187" t="inlineStr"/>
       <c r="F187" t="n">
         <v>0</v>
       </c>
@@ -5201,7 +5305,7 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="4" t="n">
         <v>45989</v>
       </c>
       <c r="B188" t="n">
@@ -5213,7 +5317,6 @@
       <c r="D188" t="n">
         <v>37.5</v>
       </c>
-      <c r="E188" t="inlineStr"/>
       <c r="F188" t="n">
         <v>0</v>
       </c>
@@ -5222,7 +5325,7 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="4" t="n">
         <v>45990</v>
       </c>
       <c r="B189" t="n">
@@ -5245,7 +5348,7 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="4" t="n">
         <v>45991</v>
       </c>
       <c r="B190" t="n">
@@ -5268,7 +5371,7 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="4" t="n">
         <v>45992</v>
       </c>
       <c r="B191" t="n">
@@ -5280,7 +5383,6 @@
       <c r="D191" t="n">
         <v>37.5</v>
       </c>
-      <c r="E191" t="inlineStr"/>
       <c r="F191" t="n">
         <v>0</v>
       </c>
@@ -5289,7 +5391,7 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="4" t="n">
         <v>45993</v>
       </c>
       <c r="B192" t="n">
@@ -5301,7 +5403,6 @@
       <c r="D192" t="n">
         <v>37.5</v>
       </c>
-      <c r="E192" t="inlineStr"/>
       <c r="F192" t="n">
         <v>0</v>
       </c>
@@ -5310,7 +5411,7 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="4" t="n">
         <v>45994</v>
       </c>
       <c r="B193" t="n">
@@ -5322,7 +5423,6 @@
       <c r="D193" t="n">
         <v>37.5</v>
       </c>
-      <c r="E193" t="inlineStr"/>
       <c r="F193" t="n">
         <v>0</v>
       </c>
@@ -5331,7 +5431,7 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="4" t="n">
         <v>45995</v>
       </c>
       <c r="B194" t="n">
@@ -5343,7 +5443,6 @@
       <c r="D194" t="n">
         <v>37.5</v>
       </c>
-      <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
         <v>0</v>
       </c>
@@ -5352,7 +5451,7 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="4" t="n">
         <v>45996</v>
       </c>
       <c r="B195" t="n">
@@ -5364,7 +5463,6 @@
       <c r="D195" t="n">
         <v>37.5</v>
       </c>
-      <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
         <v>0</v>
       </c>
@@ -5373,7 +5471,7 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="4" t="n">
         <v>45997</v>
       </c>
       <c r="B196" t="n">
@@ -5396,7 +5494,7 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="4" t="n">
         <v>45998</v>
       </c>
       <c r="B197" t="n">
@@ -5419,7 +5517,7 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" s="4" t="n">
         <v>45999</v>
       </c>
       <c r="B198" t="n">
@@ -5431,7 +5529,6 @@
       <c r="D198" t="n">
         <v>37.5</v>
       </c>
-      <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
         <v>0</v>
       </c>
@@ -5440,7 +5537,7 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" s="4" t="n">
         <v>46000</v>
       </c>
       <c r="B199" t="n">
@@ -5452,7 +5549,6 @@
       <c r="D199" t="n">
         <v>37.5</v>
       </c>
-      <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
         <v>0</v>
       </c>
@@ -5461,7 +5557,7 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" s="4" t="n">
         <v>46001</v>
       </c>
       <c r="B200" t="n">
@@ -5473,7 +5569,6 @@
       <c r="D200" t="n">
         <v>37.5</v>
       </c>
-      <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
         <v>0</v>
       </c>
@@ -5482,7 +5577,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" s="4" t="n">
         <v>46002</v>
       </c>
       <c r="B201" t="n">
@@ -5494,7 +5589,6 @@
       <c r="D201" t="n">
         <v>37.5</v>
       </c>
-      <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
         <v>0</v>
       </c>
@@ -5503,7 +5597,7 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" s="4" t="n">
         <v>46003</v>
       </c>
       <c r="B202" t="n">
@@ -5515,7 +5609,6 @@
       <c r="D202" t="n">
         <v>37.5</v>
       </c>
-      <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
         <v>0</v>
       </c>
@@ -5524,7 +5617,7 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" s="4" t="n">
         <v>46004</v>
       </c>
       <c r="B203" t="n">
@@ -5547,7 +5640,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="n">
+      <c r="A204" s="4" t="n">
         <v>46005</v>
       </c>
       <c r="B204" t="n">
@@ -5570,7 +5663,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="n">
+      <c r="A205" s="4" t="n">
         <v>46006</v>
       </c>
       <c r="B205" t="n">
@@ -5582,7 +5675,6 @@
       <c r="D205" t="n">
         <v>37.5</v>
       </c>
-      <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
         <v>0</v>
       </c>
@@ -5591,7 +5683,7 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="n">
+      <c r="A206" s="4" t="n">
         <v>46007</v>
       </c>
       <c r="B206" t="n">
@@ -5603,7 +5695,6 @@
       <c r="D206" t="n">
         <v>37.5</v>
       </c>
-      <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
         <v>0</v>
       </c>
@@ -5612,7 +5703,7 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" s="4" t="n">
         <v>46008</v>
       </c>
       <c r="B207" t="n">
@@ -5624,7 +5715,6 @@
       <c r="D207" t="n">
         <v>37.5</v>
       </c>
-      <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
         <v>0</v>
       </c>
@@ -5633,7 +5723,7 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" s="4" t="n">
         <v>46009</v>
       </c>
       <c r="B208" t="n">
@@ -5645,7 +5735,6 @@
       <c r="D208" t="n">
         <v>37.5</v>
       </c>
-      <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
         <v>0</v>
       </c>
@@ -5654,7 +5743,7 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" s="4" t="n">
         <v>46010</v>
       </c>
       <c r="B209" t="n">
@@ -5666,7 +5755,6 @@
       <c r="D209" t="n">
         <v>37.5</v>
       </c>
-      <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
         <v>0</v>
       </c>
@@ -5675,7 +5763,7 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" s="4" t="n">
         <v>46011</v>
       </c>
       <c r="B210" t="n">
@@ -5698,7 +5786,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" s="4" t="n">
         <v>46012</v>
       </c>
       <c r="B211" t="n">
@@ -5721,7 +5809,7 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="n">
+      <c r="A212" s="4" t="n">
         <v>46013</v>
       </c>
       <c r="B212" t="n">
@@ -5733,7 +5821,6 @@
       <c r="D212" t="n">
         <v>37.5</v>
       </c>
-      <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
         <v>0</v>
       </c>
@@ -5746,7 +5833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5860,8 +5947,6 @@
       <c r="H2" t="n">
         <v>0.3</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>44</v>
       </c>
@@ -5905,8 +5990,6 @@
       <c r="H3" t="n">
         <v>0.3</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>44</v>
       </c>
@@ -6003,8 +6086,6 @@
       <c r="H5" t="n">
         <v>0.3</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>44</v>
       </c>
@@ -6048,8 +6129,6 @@
       <c r="H6" t="n">
         <v>0.3</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>44</v>
       </c>
@@ -6098,7 +6177,6 @@
           <t>monday</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>44</v>
       </c>
@@ -6147,7 +6225,6 @@
           <t>tuesday</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>44</v>
       </c>
@@ -6196,7 +6273,6 @@
           <t>wednesday</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>44</v>
       </c>
@@ -6245,7 +6321,6 @@
           <t>thursday</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>44</v>
       </c>
@@ -6294,7 +6369,6 @@
           <t>friday</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>44</v>
       </c>
@@ -6343,7 +6417,6 @@
           <t>friday</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>44</v>
       </c>
@@ -6359,7 +6432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6575,7 +6648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/data/examples/Network_Config_backup.xlsx
+++ b/data/examples/Network_Config_backup.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,17 +511,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>G142</t>
+          <t>G144</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Product G142</t>
+          <t>Product G144</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>G142</t>
+          <t>G144</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -537,23 +537,23 @@
         <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>415</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>G610</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Product G144</t>
+          <t>Product G610</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>G144</t>
+          <t>G610</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -569,102 +569,6 @@
         <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>G147</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Product G147</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>G147</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>17</v>
-      </c>
-      <c r="E4" t="n">
-        <v>120</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>G153</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Product G153</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>G153</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>17</v>
-      </c>
-      <c r="E5" t="n">
-        <v>120</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>G610</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Product G610</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>G610</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>17</v>
-      </c>
-      <c r="E6" t="n">
-        <v>120</v>
-      </c>
-      <c r="F6" t="n">
-        <v>14</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7</v>
-      </c>
-      <c r="H6" t="n">
         <v>395</v>
       </c>
     </row>
